--- a/brasil-clubes-rank-2024/tabelas/Libertadores Rank.xlsx
+++ b/brasil-clubes-rank-2024/tabelas/Libertadores Rank.xlsx
@@ -519,7 +519,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="n">
-        <v>38014.8</v>
+        <v>527.98</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
         <v>22</v>
       </c>
       <c r="K3" t="n">
-        <v>36516</v>
+        <v>507.17</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>35508</v>
+        <v>493.17</v>
       </c>
     </row>
     <row r="5">
@@ -630,7 +630,7 @@
         <v>16</v>
       </c>
       <c r="K5" t="n">
-        <v>33326.4</v>
+        <v>462.87</v>
       </c>
     </row>
     <row r="6">
@@ -667,7 +667,7 @@
         <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>29918.4</v>
+        <v>415.53</v>
       </c>
     </row>
     <row r="7">
@@ -704,7 +704,7 @@
         <v>17</v>
       </c>
       <c r="K7" t="n">
-        <v>25038</v>
+        <v>347.75</v>
       </c>
     </row>
     <row r="8">
@@ -741,7 +741,7 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>23391.6</v>
+        <v>324.88</v>
       </c>
     </row>
     <row r="9">
@@ -778,7 +778,7 @@
         <v>14</v>
       </c>
       <c r="K9" t="n">
-        <v>14590.8</v>
+        <v>202.65</v>
       </c>
     </row>
     <row r="10">
@@ -815,7 +815,7 @@
         <v>18</v>
       </c>
       <c r="K10" t="n">
-        <v>11871.6</v>
+        <v>164.88</v>
       </c>
     </row>
     <row r="11">
@@ -852,7 +852,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>11748</v>
+        <v>163.17</v>
       </c>
     </row>
     <row r="12">
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>10383.6</v>
+        <v>144.22</v>
       </c>
     </row>
     <row r="13">
@@ -926,7 +926,7 @@
         <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>9214.799999999999</v>
+        <v>127.98</v>
       </c>
     </row>
     <row r="14">
@@ -963,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="K14" t="n">
-        <v>6288</v>
+        <v>87.33</v>
       </c>
     </row>
     <row r="15">
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3039.6</v>
+        <v>42.22</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>1584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>820.8000000000001</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="18">
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>399.6</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="19">
@@ -1148,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>384</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="20">
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>288</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>261.6</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="22">
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>240</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="23">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>240</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="24">
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>240</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="25">
@@ -1370,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>165.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>165.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="27">
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>144</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>144</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>144</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1555,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>144</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>144</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1629,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>144</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
